--- a/datos.xlsx
+++ b/datos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26322"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20B66D36-49C3-4B46-BAE4-C6C3D49406F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="8_{20B66D36-49C3-4B46-BAE4-C6C3D49406F0}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="8010" windowWidth="14805" xWindow="240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="105"/>
   </bookViews>
   <sheets>
-    <sheet name="CasosAnalisis" sheetId="2" r:id="rId1"/>
+    <sheet name="CasosAnalisis" r:id="rId1" sheetId="2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1823" uniqueCount="1172">
   <si>
     <t>Algoritmo de multiplicación de matrices</t>
   </si>
@@ -127,12 +127,3430 @@
   </si>
   <si>
     <t>V.4 Parallel Block</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1594100</t>
+  </si>
+  <si>
+    <t>752800</t>
+  </si>
+  <si>
+    <t>694200</t>
+  </si>
+  <si>
+    <t>1013700.0</t>
+  </si>
+  <si>
+    <t>449200</t>
+  </si>
+  <si>
+    <t>449200.0</t>
+  </si>
+  <si>
+    <t>380000</t>
+  </si>
+  <si>
+    <t>380000.0</t>
+  </si>
+  <si>
+    <t>419900</t>
+  </si>
+  <si>
+    <t>419900.0</t>
+  </si>
+  <si>
+    <t>410200</t>
+  </si>
+  <si>
+    <t>410200.0</t>
+  </si>
+  <si>
+    <t>389500</t>
+  </si>
+  <si>
+    <t>389500.0</t>
+  </si>
+  <si>
+    <t>419400</t>
+  </si>
+  <si>
+    <t>419400.0</t>
+  </si>
+  <si>
+    <t>810800</t>
+  </si>
+  <si>
+    <t>810800.0</t>
+  </si>
+  <si>
+    <t>659300</t>
+  </si>
+  <si>
+    <t>659300.0</t>
+  </si>
+  <si>
+    <t>588700</t>
+  </si>
+  <si>
+    <t>588700.0</t>
+  </si>
+  <si>
+    <t>396000</t>
+  </si>
+  <si>
+    <t>396000.0</t>
+  </si>
+  <si>
+    <t>115540000</t>
+  </si>
+  <si>
+    <t>1.1554E8</t>
+  </si>
+  <si>
+    <t>669700</t>
+  </si>
+  <si>
+    <t>669700.0</t>
+  </si>
+  <si>
+    <t>1385700</t>
+  </si>
+  <si>
+    <t>1385700.0</t>
+  </si>
+  <si>
+    <t>584800</t>
+  </si>
+  <si>
+    <t>584800.0</t>
+  </si>
+  <si>
+    <t>709900</t>
+  </si>
+  <si>
+    <t>709900.0</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>6300</t>
+  </si>
+  <si>
+    <t>761850.0</t>
+  </si>
+  <si>
+    <t>5500</t>
+  </si>
+  <si>
+    <t>227350.0</t>
+  </si>
+  <si>
+    <t>4700</t>
+  </si>
+  <si>
+    <t>192350.0</t>
+  </si>
+  <si>
+    <t>4300</t>
+  </si>
+  <si>
+    <t>212100.0</t>
+  </si>
+  <si>
+    <t>5200</t>
+  </si>
+  <si>
+    <t>207700.0</t>
+  </si>
+  <si>
+    <t>7600</t>
+  </si>
+  <si>
+    <t>198550.0</t>
+  </si>
+  <si>
+    <t>7900</t>
+  </si>
+  <si>
+    <t>213650.0</t>
+  </si>
+  <si>
+    <t>12700</t>
+  </si>
+  <si>
+    <t>411750.0</t>
+  </si>
+  <si>
+    <t>120800</t>
+  </si>
+  <si>
+    <t>390050.0</t>
+  </si>
+  <si>
+    <t>168600</t>
+  </si>
+  <si>
+    <t>378650.0</t>
+  </si>
+  <si>
+    <t>6800</t>
+  </si>
+  <si>
+    <t>201400.0</t>
+  </si>
+  <si>
+    <t>77000</t>
+  </si>
+  <si>
+    <t>5.78085E7</t>
+  </si>
+  <si>
+    <t>9000</t>
+  </si>
+  <si>
+    <t>339350.0</t>
+  </si>
+  <si>
+    <t>97500</t>
+  </si>
+  <si>
+    <t>741600.0</t>
+  </si>
+  <si>
+    <t>296900.0</t>
+  </si>
+  <si>
+    <t>58100</t>
+  </si>
+  <si>
+    <t>384000.0</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>8900</t>
+  </si>
+  <si>
+    <t>611260.0</t>
+  </si>
+  <si>
+    <t>8300</t>
+  </si>
+  <si>
+    <t>154333.33333333334</t>
+  </si>
+  <si>
+    <t>10400</t>
+  </si>
+  <si>
+    <t>131700.0</t>
+  </si>
+  <si>
+    <t>7100</t>
+  </si>
+  <si>
+    <t>143766.66666666666</t>
+  </si>
+  <si>
+    <t>8400</t>
+  </si>
+  <si>
+    <t>141266.66666666666</t>
+  </si>
+  <si>
+    <t>9900</t>
+  </si>
+  <si>
+    <t>135666.66666666666</t>
+  </si>
+  <si>
+    <t>22600</t>
+  </si>
+  <si>
+    <t>149966.66666666666</t>
+  </si>
+  <si>
+    <t>23000</t>
+  </si>
+  <si>
+    <t>282166.6666666667</t>
+  </si>
+  <si>
+    <t>142200</t>
+  </si>
+  <si>
+    <t>307433.3333333333</t>
+  </si>
+  <si>
+    <t>133500</t>
+  </si>
+  <si>
+    <t>296933.3333333333</t>
+  </si>
+  <si>
+    <t>38100</t>
+  </si>
+  <si>
+    <t>146966.66666666666</t>
+  </si>
+  <si>
+    <t>47000</t>
+  </si>
+  <si>
+    <t>3.8554666666666664E7</t>
+  </si>
+  <si>
+    <t>16000</t>
+  </si>
+  <si>
+    <t>231566.66666666666</t>
+  </si>
+  <si>
+    <t>505000</t>
+  </si>
+  <si>
+    <t>662733.3333333334</t>
+  </si>
+  <si>
+    <t>13800</t>
+  </si>
+  <si>
+    <t>202533.33333333334</t>
+  </si>
+  <si>
+    <t>43000</t>
+  </si>
+  <si>
+    <t>270333.3333333333</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>13400</t>
+  </si>
+  <si>
+    <t>511616.6666666667</t>
+  </si>
+  <si>
+    <t>119750.0</t>
+  </si>
+  <si>
+    <t>19000</t>
+  </si>
+  <si>
+    <t>103525.0</t>
+  </si>
+  <si>
+    <t>12800</t>
+  </si>
+  <si>
+    <t>111025.0</t>
+  </si>
+  <si>
+    <t>109400.0</t>
+  </si>
+  <si>
+    <t>37700</t>
+  </si>
+  <si>
+    <t>111175.0</t>
+  </si>
+  <si>
+    <t>17400</t>
+  </si>
+  <si>
+    <t>116825.0</t>
+  </si>
+  <si>
+    <t>32500</t>
+  </si>
+  <si>
+    <t>219750.0</t>
+  </si>
+  <si>
+    <t>124500</t>
+  </si>
+  <si>
+    <t>261700.0</t>
+  </si>
+  <si>
+    <t>150800</t>
+  </si>
+  <si>
+    <t>260400.0</t>
+  </si>
+  <si>
+    <t>30700</t>
+  </si>
+  <si>
+    <t>117900.0</t>
+  </si>
+  <si>
+    <t>198800</t>
+  </si>
+  <si>
+    <t>2.89657E7</t>
+  </si>
+  <si>
+    <t>34600</t>
+  </si>
+  <si>
+    <t>182325.0</t>
+  </si>
+  <si>
+    <t>391800</t>
+  </si>
+  <si>
+    <t>595000.0</t>
+  </si>
+  <si>
+    <t>30800</t>
+  </si>
+  <si>
+    <t>159600.0</t>
+  </si>
+  <si>
+    <t>80500</t>
+  </si>
+  <si>
+    <t>222875.0</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>25200</t>
+  </si>
+  <si>
+    <t>442128.5714285714</t>
+  </si>
+  <si>
+    <t>32000</t>
+  </si>
+  <si>
+    <t>102200.0</t>
+  </si>
+  <si>
+    <t>36500</t>
+  </si>
+  <si>
+    <t>90120.0</t>
+  </si>
+  <si>
+    <t>45600</t>
+  </si>
+  <si>
+    <t>97940.0</t>
+  </si>
+  <si>
+    <t>21700</t>
+  </si>
+  <si>
+    <t>91860.0</t>
+  </si>
+  <si>
+    <t>20700</t>
+  </si>
+  <si>
+    <t>93080.0</t>
+  </si>
+  <si>
+    <t>55000</t>
+  </si>
+  <si>
+    <t>104460.0</t>
+  </si>
+  <si>
+    <t>184920.0</t>
+  </si>
+  <si>
+    <t>165000</t>
+  </si>
+  <si>
+    <t>242360.0</t>
+  </si>
+  <si>
+    <t>118300</t>
+  </si>
+  <si>
+    <t>231980.0</t>
+  </si>
+  <si>
+    <t>54500</t>
+  </si>
+  <si>
+    <t>105220.0</t>
+  </si>
+  <si>
+    <t>85200</t>
+  </si>
+  <si>
+    <t>2.31896E7</t>
+  </si>
+  <si>
+    <t>75400</t>
+  </si>
+  <si>
+    <t>160940.0</t>
+  </si>
+  <si>
+    <t>106900</t>
+  </si>
+  <si>
+    <t>497380.0</t>
+  </si>
+  <si>
+    <t>71900</t>
+  </si>
+  <si>
+    <t>142060.0</t>
+  </si>
+  <si>
+    <t>94800</t>
+  </si>
+  <si>
+    <t>197260.0</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>39900</t>
+  </si>
+  <si>
+    <t>391850.0</t>
+  </si>
+  <si>
+    <t>51000</t>
+  </si>
+  <si>
+    <t>93666.66666666667</t>
+  </si>
+  <si>
+    <t>55200</t>
+  </si>
+  <si>
+    <t>84300.0</t>
+  </si>
+  <si>
+    <t>48700</t>
+  </si>
+  <si>
+    <t>89733.33333333333</t>
+  </si>
+  <si>
+    <t>39800</t>
+  </si>
+  <si>
+    <t>83183.33333333333</t>
+  </si>
+  <si>
+    <t>45700</t>
+  </si>
+  <si>
+    <t>85183.33333333333</t>
+  </si>
+  <si>
+    <t>46100</t>
+  </si>
+  <si>
+    <t>94733.33333333333</t>
+  </si>
+  <si>
+    <t>82400</t>
+  </si>
+  <si>
+    <t>167833.33333333334</t>
+  </si>
+  <si>
+    <t>225666.66666666666</t>
+  </si>
+  <si>
+    <t>137600</t>
+  </si>
+  <si>
+    <t>216250.0</t>
+  </si>
+  <si>
+    <t>98400</t>
+  </si>
+  <si>
+    <t>104083.33333333333</t>
+  </si>
+  <si>
+    <t>140100</t>
+  </si>
+  <si>
+    <t>1.9348016666666668E7</t>
+  </si>
+  <si>
+    <t>95900</t>
+  </si>
+  <si>
+    <t>150100.0</t>
+  </si>
+  <si>
+    <t>116500</t>
+  </si>
+  <si>
+    <t>433900.0</t>
+  </si>
+  <si>
+    <t>105300</t>
+  </si>
+  <si>
+    <t>135933.33333333334</t>
+  </si>
+  <si>
+    <t>120000</t>
+  </si>
+  <si>
+    <t>184383.33333333334</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>65100</t>
+  </si>
+  <si>
+    <t>355544.44444444444</t>
+  </si>
+  <si>
+    <t>115200</t>
+  </si>
+  <si>
+    <t>96742.85714285714</t>
+  </si>
+  <si>
+    <t>87500</t>
+  </si>
+  <si>
+    <t>84757.14285714286</t>
+  </si>
+  <si>
+    <t>90400</t>
+  </si>
+  <si>
+    <t>89828.57142857143</t>
+  </si>
+  <si>
+    <t>63400</t>
+  </si>
+  <si>
+    <t>80357.14285714286</t>
+  </si>
+  <si>
+    <t>66000</t>
+  </si>
+  <si>
+    <t>82442.85714285714</t>
+  </si>
+  <si>
+    <t>72100</t>
+  </si>
+  <si>
+    <t>91500.0</t>
+  </si>
+  <si>
+    <t>88300</t>
+  </si>
+  <si>
+    <t>156471.42857142858</t>
+  </si>
+  <si>
+    <t>173100</t>
+  </si>
+  <si>
+    <t>218157.14285714287</t>
+  </si>
+  <si>
+    <t>125800</t>
+  </si>
+  <si>
+    <t>203328.57142857142</t>
+  </si>
+  <si>
+    <t>201500</t>
+  </si>
+  <si>
+    <t>118000.0</t>
+  </si>
+  <si>
+    <t>172300</t>
+  </si>
+  <si>
+    <t>1.660862857142857E7</t>
+  </si>
+  <si>
+    <t>141300</t>
+  </si>
+  <si>
+    <t>148842.85714285713</t>
+  </si>
+  <si>
+    <t>213600</t>
+  </si>
+  <si>
+    <t>402428.5714285714</t>
+  </si>
+  <si>
+    <t>126100</t>
+  </si>
+  <si>
+    <t>134528.57142857142</t>
+  </si>
+  <si>
+    <t>152900</t>
+  </si>
+  <si>
+    <t>179885.7142857143</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>106800</t>
+  </si>
+  <si>
+    <t>330670.0</t>
+  </si>
+  <si>
+    <t>120600</t>
+  </si>
+  <si>
+    <t>99725.0</t>
+  </si>
+  <si>
+    <t>126500</t>
+  </si>
+  <si>
+    <t>89975.0</t>
+  </si>
+  <si>
+    <t>80100</t>
+  </si>
+  <si>
+    <t>88612.5</t>
+  </si>
+  <si>
+    <t>77400</t>
+  </si>
+  <si>
+    <t>79987.5</t>
+  </si>
+  <si>
+    <t>76400</t>
+  </si>
+  <si>
+    <t>81687.5</t>
+  </si>
+  <si>
+    <t>102900</t>
+  </si>
+  <si>
+    <t>92925.0</t>
+  </si>
+  <si>
+    <t>129400</t>
+  </si>
+  <si>
+    <t>153087.5</t>
+  </si>
+  <si>
+    <t>146800</t>
+  </si>
+  <si>
+    <t>209237.5</t>
+  </si>
+  <si>
+    <t>139500</t>
+  </si>
+  <si>
+    <t>195350.0</t>
+  </si>
+  <si>
+    <t>279900</t>
+  </si>
+  <si>
+    <t>138237.5</t>
+  </si>
+  <si>
+    <t>198100</t>
+  </si>
+  <si>
+    <t>1.45573125E7</t>
+  </si>
+  <si>
+    <t>152300</t>
+  </si>
+  <si>
+    <t>149275.0</t>
+  </si>
+  <si>
+    <t>191200</t>
+  </si>
+  <si>
+    <t>376025.0</t>
+  </si>
+  <si>
+    <t>174600</t>
+  </si>
+  <si>
+    <t>139537.5</t>
+  </si>
+  <si>
+    <t>207700</t>
+  </si>
+  <si>
+    <t>183362.5</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>296600</t>
+  </si>
+  <si>
+    <t>327572.7272727273</t>
+  </si>
+  <si>
+    <t>191600</t>
+  </si>
+  <si>
+    <t>109933.33333333333</t>
+  </si>
+  <si>
+    <t>252800</t>
+  </si>
+  <si>
+    <t>108066.66666666667</t>
+  </si>
+  <si>
+    <t>111800</t>
+  </si>
+  <si>
+    <t>91188.88888888889</t>
+  </si>
+  <si>
+    <t>107700</t>
+  </si>
+  <si>
+    <t>83066.66666666667</t>
+  </si>
+  <si>
+    <t>132500</t>
+  </si>
+  <si>
+    <t>87333.33333333333</t>
+  </si>
+  <si>
+    <t>117400</t>
+  </si>
+  <si>
+    <t>95644.44444444444</t>
+  </si>
+  <si>
+    <t>169800</t>
+  </si>
+  <si>
+    <t>154944.44444444444</t>
+  </si>
+  <si>
+    <t>167100</t>
+  </si>
+  <si>
+    <t>204555.55555555556</t>
+  </si>
+  <si>
+    <t>232200</t>
+  </si>
+  <si>
+    <t>199444.44444444444</t>
+  </si>
+  <si>
+    <t>236600</t>
+  </si>
+  <si>
+    <t>149166.66666666666</t>
+  </si>
+  <si>
+    <t>273800</t>
+  </si>
+  <si>
+    <t>1.2970255555555556E7</t>
+  </si>
+  <si>
+    <t>225300</t>
+  </si>
+  <si>
+    <t>157722.22222222222</t>
+  </si>
+  <si>
+    <t>222300</t>
+  </si>
+  <si>
+    <t>358944.44444444444</t>
+  </si>
+  <si>
+    <t>236800</t>
+  </si>
+  <si>
+    <t>150344.44444444444</t>
+  </si>
+  <si>
+    <t>286900</t>
+  </si>
+  <si>
+    <t>194866.66666666666</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>222700</t>
+  </si>
+  <si>
+    <t>318833.3333333333</t>
+  </si>
+  <si>
+    <t>250000</t>
+  </si>
+  <si>
+    <t>123940.0</t>
+  </si>
+  <si>
+    <t>631800</t>
+  </si>
+  <si>
+    <t>160440.0</t>
+  </si>
+  <si>
+    <t>146200</t>
+  </si>
+  <si>
+    <t>96690.0</t>
+  </si>
+  <si>
+    <t>169100</t>
+  </si>
+  <si>
+    <t>91670.0</t>
+  </si>
+  <si>
+    <t>146600</t>
+  </si>
+  <si>
+    <t>93260.0</t>
+  </si>
+  <si>
+    <t>164200</t>
+  </si>
+  <si>
+    <t>102500.0</t>
+  </si>
+  <si>
+    <t>207800</t>
+  </si>
+  <si>
+    <t>160230.0</t>
+  </si>
+  <si>
+    <t>252600</t>
+  </si>
+  <si>
+    <t>209360.0</t>
+  </si>
+  <si>
+    <t>237000</t>
+  </si>
+  <si>
+    <t>203200.0</t>
+  </si>
+  <si>
+    <t>332100</t>
+  </si>
+  <si>
+    <t>167460.0</t>
+  </si>
+  <si>
+    <t>362500</t>
+  </si>
+  <si>
+    <t>1.170948E7</t>
+  </si>
+  <si>
+    <t>325900</t>
+  </si>
+  <si>
+    <t>174540.0</t>
+  </si>
+  <si>
+    <t>353300</t>
+  </si>
+  <si>
+    <t>358380.0</t>
+  </si>
+  <si>
+    <t>334800</t>
+  </si>
+  <si>
+    <t>168790.0</t>
+  </si>
+  <si>
+    <t>335000</t>
+  </si>
+  <si>
+    <t>208880.0</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>221300</t>
+  </si>
+  <si>
+    <t>311330.76923076925</t>
+  </si>
+  <si>
+    <t>329000</t>
+  </si>
+  <si>
+    <t>142581.81818181818</t>
+  </si>
+  <si>
+    <t>175763.63636363635</t>
+  </si>
+  <si>
+    <t>446900</t>
+  </si>
+  <si>
+    <t>128527.27272727272</t>
+  </si>
+  <si>
+    <t>192000</t>
+  </si>
+  <si>
+    <t>100790.90909090909</t>
+  </si>
+  <si>
+    <t>709300</t>
+  </si>
+  <si>
+    <t>149263.63636363635</t>
+  </si>
+  <si>
+    <t>213300</t>
+  </si>
+  <si>
+    <t>112572.72727272728</t>
+  </si>
+  <si>
+    <t>293900</t>
+  </si>
+  <si>
+    <t>172381.81818181818</t>
+  </si>
+  <si>
+    <t>309800</t>
+  </si>
+  <si>
+    <t>218490.9090909091</t>
+  </si>
+  <si>
+    <t>285200</t>
+  </si>
+  <si>
+    <t>210654.54545454544</t>
+  </si>
+  <si>
+    <t>423900</t>
+  </si>
+  <si>
+    <t>190772.72727272726</t>
+  </si>
+  <si>
+    <t>860200</t>
+  </si>
+  <si>
+    <t>1.0723181818181818E7</t>
+  </si>
+  <si>
+    <t>464300</t>
+  </si>
+  <si>
+    <t>200881.81818181818</t>
+  </si>
+  <si>
+    <t>456600</t>
+  </si>
+  <si>
+    <t>367309.0909090909</t>
+  </si>
+  <si>
+    <t>462800</t>
+  </si>
+  <si>
+    <t>195518.18181818182</t>
+  </si>
+  <si>
+    <t>520700</t>
+  </si>
+  <si>
+    <t>237227.27272727274</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>321300</t>
+  </si>
+  <si>
+    <t>312042.85714285716</t>
+  </si>
+  <si>
+    <t>334200</t>
+  </si>
+  <si>
+    <t>158550.0</t>
+  </si>
+  <si>
+    <t>506800</t>
+  </si>
+  <si>
+    <t>203350.0</t>
+  </si>
+  <si>
+    <t>348500</t>
+  </si>
+  <si>
+    <t>146858.33333333334</t>
+  </si>
+  <si>
+    <t>234900</t>
+  </si>
+  <si>
+    <t>111966.66666666667</t>
+  </si>
+  <si>
+    <t>275000</t>
+  </si>
+  <si>
+    <t>159741.66666666666</t>
+  </si>
+  <si>
+    <t>274900</t>
+  </si>
+  <si>
+    <t>126100.0</t>
+  </si>
+  <si>
+    <t>311000</t>
+  </si>
+  <si>
+    <t>183933.33333333334</t>
+  </si>
+  <si>
+    <t>109200</t>
+  </si>
+  <si>
+    <t>209383.33333333334</t>
+  </si>
+  <si>
+    <t>92700</t>
+  </si>
+  <si>
+    <t>200825.0</t>
+  </si>
+  <si>
+    <t>578400</t>
+  </si>
+  <si>
+    <t>223075.0</t>
+  </si>
+  <si>
+    <t>623700</t>
+  </si>
+  <si>
+    <t>9881558.333333334</t>
+  </si>
+  <si>
+    <t>556000</t>
+  </si>
+  <si>
+    <t>230475.0</t>
+  </si>
+  <si>
+    <t>1021700</t>
+  </si>
+  <si>
+    <t>421841.6666666667</t>
+  </si>
+  <si>
+    <t>551200</t>
+  </si>
+  <si>
+    <t>225158.33333333334</t>
+  </si>
+  <si>
+    <t>817800</t>
+  </si>
+  <si>
+    <t>285608.3333333333</t>
+  </si>
+  <si>
+    <t>767600</t>
+  </si>
+  <si>
+    <t>705400</t>
+  </si>
+  <si>
+    <t>686700</t>
+  </si>
+  <si>
+    <t>703300</t>
+  </si>
+  <si>
+    <t>704900</t>
+  </si>
+  <si>
+    <t>711600</t>
+  </si>
+  <si>
+    <t>1273700</t>
+  </si>
+  <si>
+    <t>1005600</t>
+  </si>
+  <si>
+    <t>1505200</t>
+  </si>
+  <si>
+    <t>843100</t>
+  </si>
+  <si>
+    <t>707600</t>
+  </si>
+  <si>
+    <t>865800</t>
+  </si>
+  <si>
+    <t>708800</t>
+  </si>
+  <si>
+    <t>698799</t>
+  </si>
+  <si>
+    <t>677600</t>
+  </si>
+  <si>
+    <t>1025499</t>
+  </si>
+  <si>
+    <t>704100</t>
+  </si>
+  <si>
+    <t>840899.8823529412</t>
+  </si>
+  <si>
+    <t>370800</t>
+  </si>
+  <si>
+    <t>370800.0</t>
+  </si>
+  <si>
+    <t>2003800</t>
+  </si>
+  <si>
+    <t>2003800.0</t>
+  </si>
+  <si>
+    <t>399500</t>
+  </si>
+  <si>
+    <t>399500.0</t>
+  </si>
+  <si>
+    <t>699400</t>
+  </si>
+  <si>
+    <t>699400.0</t>
+  </si>
+  <si>
+    <t>472300</t>
+  </si>
+  <si>
+    <t>472300.0</t>
+  </si>
+  <si>
+    <t>440800</t>
+  </si>
+  <si>
+    <t>440800.0</t>
+  </si>
+  <si>
+    <t>605700</t>
+  </si>
+  <si>
+    <t>605700.0</t>
+  </si>
+  <si>
+    <t>655100</t>
+  </si>
+  <si>
+    <t>655100.0</t>
+  </si>
+  <si>
+    <t>641000</t>
+  </si>
+  <si>
+    <t>641000.0</t>
+  </si>
+  <si>
+    <t>434700</t>
+  </si>
+  <si>
+    <t>434700.0</t>
+  </si>
+  <si>
+    <t>6628700</t>
+  </si>
+  <si>
+    <t>6628700.0</t>
+  </si>
+  <si>
+    <t>652000</t>
+  </si>
+  <si>
+    <t>652000.0</t>
+  </si>
+  <si>
+    <t>3298600</t>
+  </si>
+  <si>
+    <t>3298600.0</t>
+  </si>
+  <si>
+    <t>1936100</t>
+  </si>
+  <si>
+    <t>1936100.0</t>
+  </si>
+  <si>
+    <t>697200</t>
+  </si>
+  <si>
+    <t>697200.0</t>
+  </si>
+  <si>
+    <t>4600</t>
+  </si>
+  <si>
+    <t>794438.7777777778</t>
+  </si>
+  <si>
+    <t>187750.0</t>
+  </si>
+  <si>
+    <t>4800</t>
+  </si>
+  <si>
+    <t>1004300.0</t>
+  </si>
+  <si>
+    <t>5600</t>
+  </si>
+  <si>
+    <t>202550.0</t>
+  </si>
+  <si>
+    <t>5100</t>
+  </si>
+  <si>
+    <t>352250.0</t>
+  </si>
+  <si>
+    <t>6400</t>
+  </si>
+  <si>
+    <t>239350.0</t>
+  </si>
+  <si>
+    <t>223150.0</t>
+  </si>
+  <si>
+    <t>23200</t>
+  </si>
+  <si>
+    <t>314450.0</t>
+  </si>
+  <si>
+    <t>112900</t>
+  </si>
+  <si>
+    <t>116600</t>
+  </si>
+  <si>
+    <t>378800.0</t>
+  </si>
+  <si>
+    <t>8100</t>
+  </si>
+  <si>
+    <t>221400.0</t>
+  </si>
+  <si>
+    <t>61600</t>
+  </si>
+  <si>
+    <t>3345150.0</t>
+  </si>
+  <si>
+    <t>9100</t>
+  </si>
+  <si>
+    <t>330550.0</t>
+  </si>
+  <si>
+    <t>70700</t>
+  </si>
+  <si>
+    <t>1684650.0</t>
+  </si>
+  <si>
+    <t>972600.0</t>
+  </si>
+  <si>
+    <t>36900</t>
+  </si>
+  <si>
+    <t>367050.0</t>
+  </si>
+  <si>
+    <t>753026.2105263158</t>
+  </si>
+  <si>
+    <t>9600</t>
+  </si>
+  <si>
+    <t>128366.66666666667</t>
+  </si>
+  <si>
+    <t>9800</t>
+  </si>
+  <si>
+    <t>672800.0</t>
+  </si>
+  <si>
+    <t>137800.0</t>
+  </si>
+  <si>
+    <t>237200.0</t>
+  </si>
+  <si>
+    <t>165900.0</t>
+  </si>
+  <si>
+    <t>29100</t>
+  </si>
+  <si>
+    <t>158466.66666666666</t>
+  </si>
+  <si>
+    <t>34300</t>
+  </si>
+  <si>
+    <t>221066.66666666666</t>
+  </si>
+  <si>
+    <t>123100</t>
+  </si>
+  <si>
+    <t>297033.3333333333</t>
+  </si>
+  <si>
+    <t>158600</t>
+  </si>
+  <si>
+    <t>305400.0</t>
+  </si>
+  <si>
+    <t>28900</t>
+  </si>
+  <si>
+    <t>157233.33333333334</t>
+  </si>
+  <si>
+    <t>63200</t>
+  </si>
+  <si>
+    <t>2251166.6666666665</t>
+  </si>
+  <si>
+    <t>17000</t>
+  </si>
+  <si>
+    <t>226033.33333333334</t>
+  </si>
+  <si>
+    <t>440000</t>
+  </si>
+  <si>
+    <t>1269766.6666666667</t>
+  </si>
+  <si>
+    <t>19100</t>
+  </si>
+  <si>
+    <t>654766.6666666666</t>
+  </si>
+  <si>
+    <t>43500</t>
+  </si>
+  <si>
+    <t>259200.0</t>
+  </si>
+  <si>
+    <t>36000</t>
+  </si>
+  <si>
+    <t>717174.9</t>
+  </si>
+  <si>
+    <t>18000</t>
+  </si>
+  <si>
+    <t>100775.0</t>
+  </si>
+  <si>
+    <t>29500</t>
+  </si>
+  <si>
+    <t>511975.0</t>
+  </si>
+  <si>
+    <t>14700</t>
+  </si>
+  <si>
+    <t>107025.0</t>
+  </si>
+  <si>
+    <t>15100</t>
+  </si>
+  <si>
+    <t>181675.0</t>
+  </si>
+  <si>
+    <t>14500</t>
+  </si>
+  <si>
+    <t>128050.0</t>
+  </si>
+  <si>
+    <t>17100</t>
+  </si>
+  <si>
+    <t>123125.0</t>
+  </si>
+  <si>
+    <t>82900</t>
+  </si>
+  <si>
+    <t>186525.0</t>
+  </si>
+  <si>
+    <t>137300</t>
+  </si>
+  <si>
+    <t>257100.0</t>
+  </si>
+  <si>
+    <t>131300</t>
+  </si>
+  <si>
+    <t>261875.0</t>
+  </si>
+  <si>
+    <t>36200</t>
+  </si>
+  <si>
+    <t>126975.0</t>
+  </si>
+  <si>
+    <t>66100</t>
+  </si>
+  <si>
+    <t>1704900.0</t>
+  </si>
+  <si>
+    <t>30300</t>
+  </si>
+  <si>
+    <t>177100.0</t>
+  </si>
+  <si>
+    <t>310500</t>
+  </si>
+  <si>
+    <t>1029950.0</t>
+  </si>
+  <si>
+    <t>33800</t>
+  </si>
+  <si>
+    <t>499525.0</t>
+  </si>
+  <si>
+    <t>197500</t>
+  </si>
+  <si>
+    <t>243775.0</t>
+  </si>
+  <si>
+    <t>27400</t>
+  </si>
+  <si>
+    <t>684328.4761904762</t>
+  </si>
+  <si>
+    <t>33500</t>
+  </si>
+  <si>
+    <t>87320.0</t>
+  </si>
+  <si>
+    <t>57100</t>
+  </si>
+  <si>
+    <t>421000.0</t>
+  </si>
+  <si>
+    <t>26600</t>
+  </si>
+  <si>
+    <t>90940.0</t>
+  </si>
+  <si>
+    <t>149860.0</t>
+  </si>
+  <si>
+    <t>32900</t>
+  </si>
+  <si>
+    <t>109020.0</t>
+  </si>
+  <si>
+    <t>30200</t>
+  </si>
+  <si>
+    <t>104540.0</t>
+  </si>
+  <si>
+    <t>158360.0</t>
+  </si>
+  <si>
+    <t>233200.0</t>
+  </si>
+  <si>
+    <t>122400</t>
+  </si>
+  <si>
+    <t>233980.0</t>
+  </si>
+  <si>
+    <t>53500</t>
+  </si>
+  <si>
+    <t>112280.0</t>
+  </si>
+  <si>
+    <t>1381420.0</t>
+  </si>
+  <si>
+    <t>52400</t>
+  </si>
+  <si>
+    <t>152160.0</t>
+  </si>
+  <si>
+    <t>261700</t>
+  </si>
+  <si>
+    <t>876300.0</t>
+  </si>
+  <si>
+    <t>71600</t>
+  </si>
+  <si>
+    <t>413940.0</t>
+  </si>
+  <si>
+    <t>109700</t>
+  </si>
+  <si>
+    <t>216960.0</t>
+  </si>
+  <si>
+    <t>40900</t>
+  </si>
+  <si>
+    <t>655081.7272727273</t>
+  </si>
+  <si>
+    <t>64800</t>
+  </si>
+  <si>
+    <t>83566.66666666667</t>
+  </si>
+  <si>
+    <t>57500</t>
+  </si>
+  <si>
+    <t>360416.6666666667</t>
+  </si>
+  <si>
+    <t>61100</t>
+  </si>
+  <si>
+    <t>85966.66666666667</t>
+  </si>
+  <si>
+    <t>36800</t>
+  </si>
+  <si>
+    <t>131016.66666666667</t>
+  </si>
+  <si>
+    <t>91500</t>
+  </si>
+  <si>
+    <t>106100.0</t>
+  </si>
+  <si>
+    <t>58900</t>
+  </si>
+  <si>
+    <t>96933.33333333333</t>
+  </si>
+  <si>
+    <t>63600</t>
+  </si>
+  <si>
+    <t>142566.66666666666</t>
+  </si>
+  <si>
+    <t>123200</t>
+  </si>
+  <si>
+    <t>214866.66666666666</t>
+  </si>
+  <si>
+    <t>142600</t>
+  </si>
+  <si>
+    <t>218750.0</t>
+  </si>
+  <si>
+    <t>125900</t>
+  </si>
+  <si>
+    <t>114550.0</t>
+  </si>
+  <si>
+    <t>122300</t>
+  </si>
+  <si>
+    <t>1171566.6666666667</t>
+  </si>
+  <si>
+    <t>85600</t>
+  </si>
+  <si>
+    <t>141066.66666666666</t>
+  </si>
+  <si>
+    <t>143100</t>
+  </si>
+  <si>
+    <t>754100.0</t>
+  </si>
+  <si>
+    <t>100400</t>
+  </si>
+  <si>
+    <t>361683.3333333333</t>
+  </si>
+  <si>
+    <t>125500</t>
+  </si>
+  <si>
+    <t>201716.66666666666</t>
+  </si>
+  <si>
+    <t>57600</t>
+  </si>
+  <si>
+    <t>629104.2608695652</t>
+  </si>
+  <si>
+    <t>78100</t>
+  </si>
+  <si>
+    <t>82785.71428571429</t>
+  </si>
+  <si>
+    <t>90600</t>
+  </si>
+  <si>
+    <t>321871.4285714286</t>
+  </si>
+  <si>
+    <t>56400</t>
+  </si>
+  <si>
+    <t>81742.85714285714</t>
+  </si>
+  <si>
+    <t>60100</t>
+  </si>
+  <si>
+    <t>120885.71428571429</t>
+  </si>
+  <si>
+    <t>48600</t>
+  </si>
+  <si>
+    <t>97885.71428571429</t>
+  </si>
+  <si>
+    <t>61900</t>
+  </si>
+  <si>
+    <t>91928.57142857143</t>
+  </si>
+  <si>
+    <t>94100</t>
+  </si>
+  <si>
+    <t>135642.85714285713</t>
+  </si>
+  <si>
+    <t>142100</t>
+  </si>
+  <si>
+    <t>204471.42857142858</t>
+  </si>
+  <si>
+    <t>139100</t>
+  </si>
+  <si>
+    <t>207371.42857142858</t>
+  </si>
+  <si>
+    <t>132700</t>
+  </si>
+  <si>
+    <t>117142.85714285714</t>
+  </si>
+  <si>
+    <t>162300</t>
+  </si>
+  <si>
+    <t>1027385.7142857143</t>
+  </si>
+  <si>
+    <t>257100</t>
+  </si>
+  <si>
+    <t>157642.85714285713</t>
+  </si>
+  <si>
+    <t>781900</t>
+  </si>
+  <si>
+    <t>758071.4285714285</t>
+  </si>
+  <si>
+    <t>138100</t>
+  </si>
+  <si>
+    <t>329742.85714285716</t>
+  </si>
+  <si>
+    <t>186800</t>
+  </si>
+  <si>
+    <t>199585.7142857143</t>
+  </si>
+  <si>
+    <t>85700</t>
+  </si>
+  <si>
+    <t>606462.4166666666</t>
+  </si>
+  <si>
+    <t>106400</t>
+  </si>
+  <si>
+    <t>85737.5</t>
+  </si>
+  <si>
+    <t>127300</t>
+  </si>
+  <si>
+    <t>297550.0</t>
+  </si>
+  <si>
+    <t>173800</t>
+  </si>
+  <si>
+    <t>93250.0</t>
+  </si>
+  <si>
+    <t>83300</t>
+  </si>
+  <si>
+    <t>116187.5</t>
+  </si>
+  <si>
+    <t>82000</t>
+  </si>
+  <si>
+    <t>95900.0</t>
+  </si>
+  <si>
+    <t>133800</t>
+  </si>
+  <si>
+    <t>97162.5</t>
+  </si>
+  <si>
+    <t>124700</t>
+  </si>
+  <si>
+    <t>134275.0</t>
+  </si>
+  <si>
+    <t>127100</t>
+  </si>
+  <si>
+    <t>194800.0</t>
+  </si>
+  <si>
+    <t>215500</t>
+  </si>
+  <si>
+    <t>208387.5</t>
+  </si>
+  <si>
+    <t>152200</t>
+  </si>
+  <si>
+    <t>121525.0</t>
+  </si>
+  <si>
+    <t>2137200</t>
+  </si>
+  <si>
+    <t>1166112.5</t>
+  </si>
+  <si>
+    <t>301800</t>
+  </si>
+  <si>
+    <t>175662.5</t>
+  </si>
+  <si>
+    <t>219500</t>
+  </si>
+  <si>
+    <t>690750.0</t>
+  </si>
+  <si>
+    <t>167600</t>
+  </si>
+  <si>
+    <t>309475.0</t>
+  </si>
+  <si>
+    <t>202600</t>
+  </si>
+  <si>
+    <t>199962.5</t>
+  </si>
+  <si>
+    <t>165800</t>
+  </si>
+  <si>
+    <t>588835.92</t>
+  </si>
+  <si>
+    <t>182500</t>
+  </si>
+  <si>
+    <t>96488.88888888889</t>
+  </si>
+  <si>
+    <t>176500</t>
+  </si>
+  <si>
+    <t>284100.0</t>
+  </si>
+  <si>
+    <t>121800</t>
+  </si>
+  <si>
+    <t>96422.22222222222</t>
+  </si>
+  <si>
+    <t>115244.44444444444</t>
+  </si>
+  <si>
+    <t>101088.88888888889</t>
+  </si>
+  <si>
+    <t>121400</t>
+  </si>
+  <si>
+    <t>99855.55555555556</t>
+  </si>
+  <si>
+    <t>153600</t>
+  </si>
+  <si>
+    <t>136422.22222222222</t>
+  </si>
+  <si>
+    <t>184700</t>
+  </si>
+  <si>
+    <t>193677.77777777778</t>
+  </si>
+  <si>
+    <t>168400</t>
+  </si>
+  <si>
+    <t>203944.44444444444</t>
+  </si>
+  <si>
+    <t>237900</t>
+  </si>
+  <si>
+    <t>134455.55555555556</t>
+  </si>
+  <si>
+    <t>260600</t>
+  </si>
+  <si>
+    <t>1065500.0</t>
+  </si>
+  <si>
+    <t>249100</t>
+  </si>
+  <si>
+    <t>183822.22222222222</t>
+  </si>
+  <si>
+    <t>252200</t>
+  </si>
+  <si>
+    <t>642022.2222222222</t>
+  </si>
+  <si>
+    <t>253300</t>
+  </si>
+  <si>
+    <t>303233.3333333333</t>
+  </si>
+  <si>
+    <t>263600</t>
+  </si>
+  <si>
+    <t>207033.33333333334</t>
+  </si>
+  <si>
+    <t>163800</t>
+  </si>
+  <si>
+    <t>572488.3846153846</t>
+  </si>
+  <si>
+    <t>203800</t>
+  </si>
+  <si>
+    <t>107220.0</t>
+  </si>
+  <si>
+    <t>280910.0</t>
+  </si>
+  <si>
+    <t>143900</t>
+  </si>
+  <si>
+    <t>101170.0</t>
+  </si>
+  <si>
+    <t>164600</t>
+  </si>
+  <si>
+    <t>120180.0</t>
+  </si>
+  <si>
+    <t>106200.0</t>
+  </si>
+  <si>
+    <t>171900</t>
+  </si>
+  <si>
+    <t>107060.0</t>
+  </si>
+  <si>
+    <t>220500</t>
+  </si>
+  <si>
+    <t>144830.0</t>
+  </si>
+  <si>
+    <t>287100</t>
+  </si>
+  <si>
+    <t>203020.0</t>
+  </si>
+  <si>
+    <t>2895200</t>
+  </si>
+  <si>
+    <t>473070.0</t>
+  </si>
+  <si>
+    <t>150670.0</t>
+  </si>
+  <si>
+    <t>334600</t>
+  </si>
+  <si>
+    <t>992410.0</t>
+  </si>
+  <si>
+    <t>337600</t>
+  </si>
+  <si>
+    <t>199200.0</t>
+  </si>
+  <si>
+    <t>255700</t>
+  </si>
+  <si>
+    <t>603390.0</t>
+  </si>
+  <si>
+    <t>329200</t>
+  </si>
+  <si>
+    <t>305830.0</t>
+  </si>
+  <si>
+    <t>349700</t>
+  </si>
+  <si>
+    <t>221300.0</t>
+  </si>
+  <si>
+    <t>235900</t>
+  </si>
+  <si>
+    <t>560022.1481481482</t>
+  </si>
+  <si>
+    <t>282000</t>
+  </si>
+  <si>
+    <t>123109.09090909091</t>
+  </si>
+  <si>
+    <t>326400</t>
+  </si>
+  <si>
+    <t>285045.45454545453</t>
+  </si>
+  <si>
+    <t>263800</t>
+  </si>
+  <si>
+    <t>115954.54545454546</t>
+  </si>
+  <si>
+    <t>201600</t>
+  </si>
+  <si>
+    <t>127581.81818181818</t>
+  </si>
+  <si>
+    <t>251200</t>
+  </si>
+  <si>
+    <t>119381.81818181818</t>
+  </si>
+  <si>
+    <t>217200</t>
+  </si>
+  <si>
+    <t>117072.72727272728</t>
+  </si>
+  <si>
+    <t>278100</t>
+  </si>
+  <si>
+    <t>156945.45454545456</t>
+  </si>
+  <si>
+    <t>284500</t>
+  </si>
+  <si>
+    <t>210427.27272727274</t>
+  </si>
+  <si>
+    <t>301400</t>
+  </si>
+  <si>
+    <t>457463.63636363635</t>
+  </si>
+  <si>
+    <t>438100</t>
+  </si>
+  <si>
+    <t>176800.0</t>
+  </si>
+  <si>
+    <t>432900</t>
+  </si>
+  <si>
+    <t>941545.4545454546</t>
+  </si>
+  <si>
+    <t>457000</t>
+  </si>
+  <si>
+    <t>222636.36363636365</t>
+  </si>
+  <si>
+    <t>335900</t>
+  </si>
+  <si>
+    <t>579072.7272727273</t>
+  </si>
+  <si>
+    <t>586700</t>
+  </si>
+  <si>
+    <t>331363.63636363635</t>
+  </si>
+  <si>
+    <t>495500</t>
+  </si>
+  <si>
+    <t>246227.27272727274</t>
+  </si>
+  <si>
+    <t>284300</t>
+  </si>
+  <si>
+    <t>550174.9285714285</t>
+  </si>
+  <si>
+    <t>333200</t>
+  </si>
+  <si>
+    <t>140616.66666666666</t>
+  </si>
+  <si>
+    <t>403000</t>
+  </si>
+  <si>
+    <t>294875.0</t>
+  </si>
+  <si>
+    <t>330000</t>
+  </si>
+  <si>
+    <t>133791.66666666666</t>
+  </si>
+  <si>
+    <t>233300</t>
+  </si>
+  <si>
+    <t>136391.66666666666</t>
+  </si>
+  <si>
+    <t>292800</t>
+  </si>
+  <si>
+    <t>133833.33333333334</t>
+  </si>
+  <si>
+    <t>272000</t>
+  </si>
+  <si>
+    <t>129983.33333333333</t>
+  </si>
+  <si>
+    <t>334700</t>
+  </si>
+  <si>
+    <t>171758.33333333334</t>
+  </si>
+  <si>
+    <t>101100</t>
+  </si>
+  <si>
+    <t>201316.66666666666</t>
+  </si>
+  <si>
+    <t>93900</t>
+  </si>
+  <si>
+    <t>427166.6666666667</t>
+  </si>
+  <si>
+    <t>1061700</t>
+  </si>
+  <si>
+    <t>250541.66666666666</t>
+  </si>
+  <si>
+    <t>546400</t>
+  </si>
+  <si>
+    <t>908616.6666666666</t>
+  </si>
+  <si>
+    <t>4400100</t>
+  </si>
+  <si>
+    <t>570758.3333333334</t>
+  </si>
+  <si>
+    <t>1304000</t>
+  </si>
+  <si>
+    <t>639483.3333333334</t>
+  </si>
+  <si>
+    <t>604500</t>
+  </si>
+  <si>
+    <t>354125.0</t>
+  </si>
+  <si>
+    <t>579000</t>
+  </si>
+  <si>
+    <t>273958.3333333333</t>
+  </si>
+  <si>
+    <t>714500</t>
+  </si>
+  <si>
+    <t>714500.0</t>
+  </si>
+  <si>
+    <t>427600</t>
+  </si>
+  <si>
+    <t>427600.0</t>
+  </si>
+  <si>
+    <t>734900</t>
+  </si>
+  <si>
+    <t>734900.0</t>
+  </si>
+  <si>
+    <t>454600</t>
+  </si>
+  <si>
+    <t>454600.0</t>
+  </si>
+  <si>
+    <t>399300</t>
+  </si>
+  <si>
+    <t>399300.0</t>
+  </si>
+  <si>
+    <t>401500</t>
+  </si>
+  <si>
+    <t>401500.0</t>
+  </si>
+  <si>
+    <t>426400</t>
+  </si>
+  <si>
+    <t>426400.0</t>
+  </si>
+  <si>
+    <t>715000</t>
+  </si>
+  <si>
+    <t>715000.0</t>
+  </si>
+  <si>
+    <t>564100</t>
+  </si>
+  <si>
+    <t>564100.0</t>
+  </si>
+  <si>
+    <t>552800</t>
+  </si>
+  <si>
+    <t>552800.0</t>
+  </si>
+  <si>
+    <t>523700</t>
+  </si>
+  <si>
+    <t>523700.0</t>
+  </si>
+  <si>
+    <t>3100400</t>
+  </si>
+  <si>
+    <t>3100400.0</t>
+  </si>
+  <si>
+    <t>419500</t>
+  </si>
+  <si>
+    <t>419500.0</t>
+  </si>
+  <si>
+    <t>2643400</t>
+  </si>
+  <si>
+    <t>2643400.0</t>
+  </si>
+  <si>
+    <t>377400</t>
+  </si>
+  <si>
+    <t>377400.0</t>
+  </si>
+  <si>
+    <t>622100</t>
+  </si>
+  <si>
+    <t>622100.0</t>
+  </si>
+  <si>
+    <t>4200</t>
+  </si>
+  <si>
+    <t>359350.0</t>
+  </si>
+  <si>
+    <t>5700</t>
+  </si>
+  <si>
+    <t>216650.0</t>
+  </si>
+  <si>
+    <t>6500</t>
+  </si>
+  <si>
+    <t>370700.0</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>232300.0</t>
+  </si>
+  <si>
+    <t>202000.0</t>
+  </si>
+  <si>
+    <t>4400</t>
+  </si>
+  <si>
+    <t>202950.0</t>
+  </si>
+  <si>
+    <t>38500</t>
+  </si>
+  <si>
+    <t>232450.0</t>
+  </si>
+  <si>
+    <t>363850.0</t>
+  </si>
+  <si>
+    <t>350700.0</t>
+  </si>
+  <si>
+    <t>335550.0</t>
+  </si>
+  <si>
+    <t>7300</t>
+  </si>
+  <si>
+    <t>265500.0</t>
+  </si>
+  <si>
+    <t>51900</t>
+  </si>
+  <si>
+    <t>1576150.0</t>
+  </si>
+  <si>
+    <t>6100</t>
+  </si>
+  <si>
+    <t>212800.0</t>
+  </si>
+  <si>
+    <t>75600</t>
+  </si>
+  <si>
+    <t>1359500.0</t>
+  </si>
+  <si>
+    <t>192250.0</t>
+  </si>
+  <si>
+    <t>32200</t>
+  </si>
+  <si>
+    <t>327150.0</t>
+  </si>
+  <si>
+    <t>8200</t>
+  </si>
+  <si>
+    <t>242300.0</t>
+  </si>
+  <si>
+    <t>14900</t>
+  </si>
+  <si>
+    <t>149400.0</t>
+  </si>
+  <si>
+    <t>250466.66666666666</t>
+  </si>
+  <si>
+    <t>7200</t>
+  </si>
+  <si>
+    <t>157266.66666666666</t>
+  </si>
+  <si>
+    <t>137366.66666666666</t>
+  </si>
+  <si>
+    <t>19200</t>
+  </si>
+  <si>
+    <t>141700.0</t>
+  </si>
+  <si>
+    <t>9500</t>
+  </si>
+  <si>
+    <t>158133.33333333334</t>
+  </si>
+  <si>
+    <t>44700</t>
+  </si>
+  <si>
+    <t>257466.66666666666</t>
+  </si>
+  <si>
+    <t>126000</t>
+  </si>
+  <si>
+    <t>275800.0</t>
+  </si>
+  <si>
+    <t>473500</t>
+  </si>
+  <si>
+    <t>381533.3333333333</t>
+  </si>
+  <si>
+    <t>18600</t>
+  </si>
+  <si>
+    <t>183200.0</t>
+  </si>
+  <si>
+    <t>59300</t>
+  </si>
+  <si>
+    <t>1070533.3333333333</t>
+  </si>
+  <si>
+    <t>13900</t>
+  </si>
+  <si>
+    <t>146500.0</t>
+  </si>
+  <si>
+    <t>420200</t>
+  </si>
+  <si>
+    <t>1046400.0</t>
+  </si>
+  <si>
+    <t>13300</t>
+  </si>
+  <si>
+    <t>132600.0</t>
+  </si>
+  <si>
+    <t>54400</t>
+  </si>
+  <si>
+    <t>236233.33333333334</t>
+  </si>
+  <si>
+    <t>13700</t>
+  </si>
+  <si>
+    <t>185150.0</t>
+  </si>
+  <si>
+    <t>116325.0</t>
+  </si>
+  <si>
+    <t>18500</t>
+  </si>
+  <si>
+    <t>192475.0</t>
+  </si>
+  <si>
+    <t>13100</t>
+  </si>
+  <si>
+    <t>121225.0</t>
+  </si>
+  <si>
+    <t>109600.0</t>
+  </si>
+  <si>
+    <t>23500</t>
+  </si>
+  <si>
+    <t>124475.0</t>
+  </si>
+  <si>
+    <t>29000</t>
+  </si>
+  <si>
+    <t>200350.0</t>
+  </si>
+  <si>
+    <t>134400</t>
+  </si>
+  <si>
+    <t>240450.0</t>
+  </si>
+  <si>
+    <t>136400</t>
+  </si>
+  <si>
+    <t>320250.0</t>
+  </si>
+  <si>
+    <t>34500</t>
+  </si>
+  <si>
+    <t>146025.0</t>
+  </si>
+  <si>
+    <t>83500</t>
+  </si>
+  <si>
+    <t>823775.0</t>
+  </si>
+  <si>
+    <t>73300</t>
+  </si>
+  <si>
+    <t>128200.0</t>
+  </si>
+  <si>
+    <t>272900</t>
+  </si>
+  <si>
+    <t>853025.0</t>
+  </si>
+  <si>
+    <t>31300</t>
+  </si>
+  <si>
+    <t>107275.0</t>
+  </si>
+  <si>
+    <t>59500</t>
+  </si>
+  <si>
+    <t>192050.0</t>
+  </si>
+  <si>
+    <t>25400</t>
+  </si>
+  <si>
+    <t>153200.0</t>
+  </si>
+  <si>
+    <t>100420.0</t>
+  </si>
+  <si>
+    <t>38700</t>
+  </si>
+  <si>
+    <t>161720.0</t>
+  </si>
+  <si>
+    <t>106120.0</t>
+  </si>
+  <si>
+    <t>21500</t>
+  </si>
+  <si>
+    <t>89920.0</t>
+  </si>
+  <si>
+    <t>26900</t>
+  </si>
+  <si>
+    <t>93060.0</t>
+  </si>
+  <si>
+    <t>51200</t>
+  </si>
+  <si>
+    <t>109820.0</t>
+  </si>
+  <si>
+    <t>59100</t>
+  </si>
+  <si>
+    <t>172100.0</t>
+  </si>
+  <si>
+    <t>123600</t>
+  </si>
+  <si>
+    <t>217080.0</t>
+  </si>
+  <si>
+    <t>137200</t>
+  </si>
+  <si>
+    <t>283640.0</t>
+  </si>
+  <si>
+    <t>70000</t>
+  </si>
+  <si>
+    <t>130820.0</t>
+  </si>
+  <si>
+    <t>87100</t>
+  </si>
+  <si>
+    <t>676440.0</t>
+  </si>
+  <si>
+    <t>113440.0</t>
+  </si>
+  <si>
+    <t>106300</t>
+  </si>
+  <si>
+    <t>703680.0</t>
+  </si>
+  <si>
+    <t>71500</t>
+  </si>
+  <si>
+    <t>100120.0</t>
+  </si>
+  <si>
+    <t>157800</t>
+  </si>
+  <si>
+    <t>185200.0</t>
+  </si>
+  <si>
+    <t>39300</t>
+  </si>
+  <si>
+    <t>134216.66666666666</t>
+  </si>
+  <si>
+    <t>91783.33333333333</t>
+  </si>
+  <si>
+    <t>64200</t>
+  </si>
+  <si>
+    <t>145466.66666666666</t>
+  </si>
+  <si>
+    <t>51600</t>
+  </si>
+  <si>
+    <t>97033.33333333333</t>
+  </si>
+  <si>
+    <t>42900</t>
+  </si>
+  <si>
+    <t>82083.33333333333</t>
+  </si>
+  <si>
+    <t>36400</t>
+  </si>
+  <si>
+    <t>83616.66666666667</t>
+  </si>
+  <si>
+    <t>52300</t>
+  </si>
+  <si>
+    <t>100233.33333333333</t>
+  </si>
+  <si>
+    <t>67800</t>
+  </si>
+  <si>
+    <t>154716.66666666666</t>
+  </si>
+  <si>
+    <t>141400</t>
+  </si>
+  <si>
+    <t>204466.66666666666</t>
+  </si>
+  <si>
+    <t>121600</t>
+  </si>
+  <si>
+    <t>256633.33333333334</t>
+  </si>
+  <si>
+    <t>91100</t>
+  </si>
+  <si>
+    <t>124200.0</t>
+  </si>
+  <si>
+    <t>122200</t>
+  </si>
+  <si>
+    <t>584066.6666666666</t>
+  </si>
+  <si>
+    <t>107433.33333333333</t>
+  </si>
+  <si>
+    <t>135000</t>
+  </si>
+  <si>
+    <t>608900.0</t>
+  </si>
+  <si>
+    <t>93500</t>
+  </si>
+  <si>
+    <t>99016.66666666667</t>
+  </si>
+  <si>
+    <t>175900.0</t>
+  </si>
+  <si>
+    <t>61000</t>
+  </si>
+  <si>
+    <t>123757.14285714286</t>
+  </si>
+  <si>
+    <t>89442.85714285714</t>
+  </si>
+  <si>
+    <t>106100</t>
+  </si>
+  <si>
+    <t>139842.85714285713</t>
+  </si>
+  <si>
+    <t>74600</t>
+  </si>
+  <si>
+    <t>93828.57142857143</t>
+  </si>
+  <si>
+    <t>63800</t>
+  </si>
+  <si>
+    <t>79471.42857142857</t>
+  </si>
+  <si>
+    <t>67100</t>
+  </si>
+  <si>
+    <t>81257.14285714286</t>
+  </si>
+  <si>
+    <t>60800</t>
+  </si>
+  <si>
+    <t>94600.0</t>
+  </si>
+  <si>
+    <t>97900</t>
+  </si>
+  <si>
+    <t>146600.0</t>
+  </si>
+  <si>
+    <t>134100</t>
+  </si>
+  <si>
+    <t>194414.2857142857</t>
+  </si>
+  <si>
+    <t>150600</t>
+  </si>
+  <si>
+    <t>241485.7142857143</t>
+  </si>
+  <si>
+    <t>132600</t>
+  </si>
+  <si>
+    <t>125400.0</t>
+  </si>
+  <si>
+    <t>184300</t>
+  </si>
+  <si>
+    <t>526957.1428571428</t>
+  </si>
+  <si>
+    <t>122500</t>
+  </si>
+  <si>
+    <t>109585.71428571429</t>
+  </si>
+  <si>
+    <t>146300</t>
+  </si>
+  <si>
+    <t>542814.2857142857</t>
+  </si>
+  <si>
+    <t>133200</t>
+  </si>
+  <si>
+    <t>103900.0</t>
+  </si>
+  <si>
+    <t>147000</t>
+  </si>
+  <si>
+    <t>171771.42857142858</t>
+  </si>
+  <si>
+    <t>89200</t>
+  </si>
+  <si>
+    <t>119437.5</t>
+  </si>
+  <si>
+    <t>93662.5</t>
+  </si>
+  <si>
+    <t>139200</t>
+  </si>
+  <si>
+    <t>139762.5</t>
+  </si>
+  <si>
+    <t>81500</t>
+  </si>
+  <si>
+    <t>92287.5</t>
+  </si>
+  <si>
+    <t>79600.0</t>
+  </si>
+  <si>
+    <t>89400</t>
+  </si>
+  <si>
+    <t>82275.0</t>
+  </si>
+  <si>
+    <t>127200</t>
+  </si>
+  <si>
+    <t>98675.0</t>
+  </si>
+  <si>
+    <t>117700</t>
+  </si>
+  <si>
+    <t>142987.5</t>
+  </si>
+  <si>
+    <t>126800</t>
+  </si>
+  <si>
+    <t>185962.5</t>
+  </si>
+  <si>
+    <t>245900</t>
+  </si>
+  <si>
+    <t>242037.5</t>
+  </si>
+  <si>
+    <t>167900</t>
+  </si>
+  <si>
+    <t>130712.5</t>
+  </si>
+  <si>
+    <t>257800</t>
+  </si>
+  <si>
+    <t>493312.5</t>
+  </si>
+  <si>
+    <t>221100</t>
+  </si>
+  <si>
+    <t>123525.0</t>
+  </si>
+  <si>
+    <t>211400</t>
+  </si>
+  <si>
+    <t>501387.5</t>
+  </si>
+  <si>
+    <t>158100</t>
+  </si>
+  <si>
+    <t>110675.0</t>
+  </si>
+  <si>
+    <t>185000</t>
+  </si>
+  <si>
+    <t>173425.0</t>
+  </si>
+  <si>
+    <t>114700</t>
+  </si>
+  <si>
+    <t>118911.11111111111</t>
+  </si>
+  <si>
+    <t>147100</t>
+  </si>
+  <si>
+    <t>99600.0</t>
+  </si>
+  <si>
+    <t>174900</t>
+  </si>
+  <si>
+    <t>143666.66666666666</t>
+  </si>
+  <si>
+    <t>107300</t>
+  </si>
+  <si>
+    <t>93955.55555555556</t>
+  </si>
+  <si>
+    <t>123300</t>
+  </si>
+  <si>
+    <t>84455.55555555556</t>
+  </si>
+  <si>
+    <t>128800</t>
+  </si>
+  <si>
+    <t>87444.44444444444</t>
+  </si>
+  <si>
+    <t>118900</t>
+  </si>
+  <si>
+    <t>100922.22222222222</t>
+  </si>
+  <si>
+    <t>267200</t>
+  </si>
+  <si>
+    <t>156788.88888888888</t>
+  </si>
+  <si>
+    <t>202400</t>
+  </si>
+  <si>
+    <t>187788.88888888888</t>
+  </si>
+  <si>
+    <t>171300</t>
+  </si>
+  <si>
+    <t>234177.77777777778</t>
+  </si>
+  <si>
+    <t>224600</t>
+  </si>
+  <si>
+    <t>141144.44444444444</t>
+  </si>
+  <si>
+    <t>477000</t>
+  </si>
+  <si>
+    <t>491500.0</t>
+  </si>
+  <si>
+    <t>244800</t>
+  </si>
+  <si>
+    <t>137000.0</t>
+  </si>
+  <si>
+    <t>265500</t>
+  </si>
+  <si>
+    <t>475177.77777777775</t>
+  </si>
+  <si>
+    <t>124588.88888888889</t>
+  </si>
+  <si>
+    <t>470300</t>
+  </si>
+  <si>
+    <t>206411.11111111112</t>
+  </si>
+  <si>
+    <t>165900</t>
+  </si>
+  <si>
+    <t>123610.0</t>
+  </si>
+  <si>
+    <t>210500</t>
+  </si>
+  <si>
+    <t>110690.0</t>
+  </si>
+  <si>
+    <t>321100</t>
+  </si>
+  <si>
+    <t>161410.0</t>
+  </si>
+  <si>
+    <t>154500</t>
+  </si>
+  <si>
+    <t>100010.0</t>
+  </si>
+  <si>
+    <t>151100</t>
+  </si>
+  <si>
+    <t>91120.0</t>
+  </si>
+  <si>
+    <t>736400</t>
+  </si>
+  <si>
+    <t>152340.0</t>
+  </si>
+  <si>
+    <t>414400</t>
+  </si>
+  <si>
+    <t>132270.0</t>
+  </si>
+  <si>
+    <t>192200</t>
+  </si>
+  <si>
+    <t>160330.0</t>
+  </si>
+  <si>
+    <t>222500</t>
+  </si>
+  <si>
+    <t>191260.0</t>
+  </si>
+  <si>
+    <t>220200</t>
+  </si>
+  <si>
+    <t>232780.0</t>
+  </si>
+  <si>
+    <t>323400</t>
+  </si>
+  <si>
+    <t>159370.0</t>
+  </si>
+  <si>
+    <t>358900</t>
+  </si>
+  <si>
+    <t>478240.0</t>
+  </si>
+  <si>
+    <t>337100</t>
+  </si>
+  <si>
+    <t>157010.0</t>
+  </si>
+  <si>
+    <t>349300</t>
+  </si>
+  <si>
+    <t>462590.0</t>
+  </si>
+  <si>
+    <t>295300</t>
+  </si>
+  <si>
+    <t>141660.0</t>
+  </si>
+  <si>
+    <t>432000</t>
+  </si>
+  <si>
+    <t>228970.0</t>
+  </si>
+  <si>
+    <t>210000</t>
+  </si>
+  <si>
+    <t>131463.63636363635</t>
+  </si>
+  <si>
+    <t>269200</t>
+  </si>
+  <si>
+    <t>125100.0</t>
+  </si>
+  <si>
+    <t>323000</t>
+  </si>
+  <si>
+    <t>176100.0</t>
+  </si>
+  <si>
+    <t>187300</t>
+  </si>
+  <si>
+    <t>107945.45454545454</t>
+  </si>
+  <si>
+    <t>185600</t>
+  </si>
+  <si>
+    <t>99709.09090909091</t>
+  </si>
+  <si>
+    <t>185500</t>
+  </si>
+  <si>
+    <t>155354.54545454544</t>
+  </si>
+  <si>
+    <t>214100</t>
+  </si>
+  <si>
+    <t>139709.0909090909</t>
+  </si>
+  <si>
+    <t>255300</t>
+  </si>
+  <si>
+    <t>168963.63636363635</t>
+  </si>
+  <si>
+    <t>346400</t>
+  </si>
+  <si>
+    <t>205363.63636363635</t>
+  </si>
+  <si>
+    <t>285700</t>
+  </si>
+  <si>
+    <t>237590.9090909091</t>
+  </si>
+  <si>
+    <t>535600</t>
+  </si>
+  <si>
+    <t>193572.72727272726</t>
+  </si>
+  <si>
+    <t>965600</t>
+  </si>
+  <si>
+    <t>522545.45454545453</t>
+  </si>
+  <si>
+    <t>714200</t>
+  </si>
+  <si>
+    <t>207663.63636363635</t>
+  </si>
+  <si>
+    <t>312900</t>
+  </si>
+  <si>
+    <t>448981.8181818182</t>
+  </si>
+  <si>
+    <t>431700</t>
+  </si>
+  <si>
+    <t>168027.27272727274</t>
+  </si>
+  <si>
+    <t>449300</t>
+  </si>
+  <si>
+    <t>249000.0</t>
+  </si>
+  <si>
+    <t>259300</t>
+  </si>
+  <si>
+    <t>142116.66666666666</t>
+  </si>
+  <si>
+    <t>337400</t>
+  </si>
+  <si>
+    <t>142791.66666666666</t>
+  </si>
+  <si>
+    <t>409100</t>
+  </si>
+  <si>
+    <t>195516.66666666666</t>
+  </si>
+  <si>
+    <t>259600</t>
+  </si>
+  <si>
+    <t>120583.33333333333</t>
+  </si>
+  <si>
+    <t>245600</t>
+  </si>
+  <si>
+    <t>111866.66666666667</t>
+  </si>
+  <si>
+    <t>235200</t>
+  </si>
+  <si>
+    <t>162008.33333333334</t>
+  </si>
+  <si>
+    <t>257200</t>
+  </si>
+  <si>
+    <t>149500.0</t>
+  </si>
+  <si>
+    <t>335700</t>
+  </si>
+  <si>
+    <t>182858.33333333334</t>
+  </si>
+  <si>
+    <t>97300</t>
+  </si>
+  <si>
+    <t>196358.33333333334</t>
+  </si>
+  <si>
+    <t>107800</t>
+  </si>
+  <si>
+    <t>226775.0</t>
+  </si>
+  <si>
+    <t>548600</t>
+  </si>
+  <si>
+    <t>223158.33333333334</t>
+  </si>
+  <si>
+    <t>583200</t>
+  </si>
+  <si>
+    <t>527600.0</t>
+  </si>
+  <si>
+    <t>559100</t>
+  </si>
+  <si>
+    <t>236950.0</t>
+  </si>
+  <si>
+    <t>1291500</t>
+  </si>
+  <si>
+    <t>519191.6666666667</t>
+  </si>
+  <si>
+    <t>542100</t>
+  </si>
+  <si>
+    <t>730800</t>
+  </si>
+  <si>
+    <t>289150.0</t>
+  </si>
+  <si>
+    <t>768300</t>
+  </si>
+  <si>
+    <t>723600</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -395,127 +3813,127 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="38">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" readingOrder="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" readingOrder="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" readingOrder="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" readingOrder="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" readingOrder="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="10" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" readingOrder="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" readingOrder="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="18" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" readingOrder="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="11" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="19" fillId="0" fontId="0" numFmtId="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="9" fillId="0" fontId="0" numFmtId="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="16" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="19" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" readingOrder="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" readingOrder="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" readingOrder="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" readingOrder="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" readingOrder="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" readingOrder="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" readingOrder="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" readingOrder="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" readingOrder="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" readingOrder="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" readingOrder="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" readingOrder="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" readingOrder="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" readingOrder="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" readingOrder="1" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -532,10 +3950,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -570,7 +3988,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -622,7 +4040,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -733,21 +4151,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -764,7 +4182,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -816,15 +4234,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{339F82B6-4E21-4442-A636-861AE1472D90}">
-  <dimension ref="A1:AA21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{339F82B6-4E21-4442-A636-861AE1472D90}">
+  <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
       <selection activeCell="Z22" sqref="Z22"/>
@@ -832,21 +4250,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" customWidth="1"/>
-    <col min="14" max="14" width="18.5703125" customWidth="1"/>
-    <col min="16" max="16" width="18.5703125" customWidth="1"/>
-    <col min="18" max="18" width="18.5703125" customWidth="1"/>
-    <col min="20" max="20" width="18.5703125" customWidth="1"/>
-    <col min="22" max="22" width="18.5703125" customWidth="1"/>
-    <col min="24" max="24" width="18.5703125" customWidth="1"/>
-    <col min="26" max="26" width="18.5703125" customWidth="1"/>
-    <col min="27" max="27" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="19.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -1079,31 +4497,81 @@
       <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="19"/>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" t="s">
+        <v>840</v>
+      </c>
+      <c r="G6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H6" t="s">
+        <v>867</v>
+      </c>
+      <c r="I6" t="s">
+        <v>133</v>
+      </c>
+      <c r="J6" t="s">
+        <v>897</v>
+      </c>
+      <c r="K6" t="s">
+        <v>164</v>
+      </c>
+      <c r="L6" t="s">
+        <v>925</v>
+      </c>
+      <c r="M6" t="s">
+        <v>196</v>
+      </c>
+      <c r="N6" t="s">
+        <v>954</v>
+      </c>
+      <c r="O6" t="s">
+        <v>228</v>
+      </c>
+      <c r="P6" t="s">
+        <v>983</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>261</v>
+      </c>
+      <c r="R6" t="s">
+        <v>1014</v>
+      </c>
+      <c r="S6" t="s">
+        <v>294</v>
+      </c>
+      <c r="T6" t="s">
+        <v>1044</v>
+      </c>
+      <c r="U6" t="s">
+        <v>327</v>
+      </c>
+      <c r="V6" t="s">
+        <v>1075</v>
+      </c>
+      <c r="W6" t="s">
+        <v>360</v>
+      </c>
+      <c r="X6" t="s">
+        <v>1107</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>392</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>1139</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>1140</v>
+      </c>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="7">
@@ -1112,31 +4580,81 @@
       <c r="B7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="19"/>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" t="s">
+        <v>842</v>
+      </c>
+      <c r="G7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" t="s">
+        <v>869</v>
+      </c>
+      <c r="I7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J7" t="s">
+        <v>541</v>
+      </c>
+      <c r="K7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L7" t="s">
+        <v>597</v>
+      </c>
+      <c r="M7" t="s">
+        <v>196</v>
+      </c>
+      <c r="N7" t="s">
+        <v>631</v>
+      </c>
+      <c r="O7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>261</v>
+      </c>
+      <c r="R7" t="s">
+        <v>605</v>
+      </c>
+      <c r="S7" t="s">
+        <v>294</v>
+      </c>
+      <c r="T7" t="s">
+        <v>1046</v>
+      </c>
+      <c r="U7" t="s">
+        <v>327</v>
+      </c>
+      <c r="V7" t="s">
+        <v>1077</v>
+      </c>
+      <c r="W7" t="s">
+        <v>360</v>
+      </c>
+      <c r="X7" t="s">
+        <v>1109</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>392</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>1141</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>1142</v>
+      </c>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="7">
@@ -1145,31 +4663,81 @@
       <c r="B8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="19"/>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>812</v>
+      </c>
+      <c r="E8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" t="s">
+        <v>844</v>
+      </c>
+      <c r="G8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" t="s">
+        <v>846</v>
+      </c>
+      <c r="I8" t="s">
+        <v>133</v>
+      </c>
+      <c r="J8" t="s">
+        <v>900</v>
+      </c>
+      <c r="K8" t="s">
+        <v>164</v>
+      </c>
+      <c r="L8" t="s">
+        <v>928</v>
+      </c>
+      <c r="M8" t="s">
+        <v>196</v>
+      </c>
+      <c r="N8" t="s">
+        <v>957</v>
+      </c>
+      <c r="O8" t="s">
+        <v>228</v>
+      </c>
+      <c r="P8" t="s">
+        <v>986</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>261</v>
+      </c>
+      <c r="R8" t="s">
+        <v>1017</v>
+      </c>
+      <c r="S8" t="s">
+        <v>294</v>
+      </c>
+      <c r="T8" t="s">
+        <v>1048</v>
+      </c>
+      <c r="U8" t="s">
+        <v>327</v>
+      </c>
+      <c r="V8" t="s">
+        <v>1079</v>
+      </c>
+      <c r="W8" t="s">
+        <v>360</v>
+      </c>
+      <c r="X8" t="s">
+        <v>1111</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>392</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>1143</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>1144</v>
+      </c>
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="7">
@@ -1178,31 +4746,81 @@
       <c r="B9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="19"/>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>814</v>
+      </c>
+      <c r="E9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" t="s">
+        <v>846</v>
+      </c>
+      <c r="G9" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" t="s">
+        <v>872</v>
+      </c>
+      <c r="I9" t="s">
+        <v>133</v>
+      </c>
+      <c r="J9" t="s">
+        <v>902</v>
+      </c>
+      <c r="K9" t="s">
+        <v>164</v>
+      </c>
+      <c r="L9" t="s">
+        <v>207</v>
+      </c>
+      <c r="M9" t="s">
+        <v>196</v>
+      </c>
+      <c r="N9" t="s">
+        <v>959</v>
+      </c>
+      <c r="O9" t="s">
+        <v>228</v>
+      </c>
+      <c r="P9" t="s">
+        <v>988</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>261</v>
+      </c>
+      <c r="R9" t="s">
+        <v>1019</v>
+      </c>
+      <c r="S9" t="s">
+        <v>294</v>
+      </c>
+      <c r="T9" t="s">
+        <v>1050</v>
+      </c>
+      <c r="U9" t="s">
+        <v>327</v>
+      </c>
+      <c r="V9" t="s">
+        <v>1081</v>
+      </c>
+      <c r="W9" t="s">
+        <v>360</v>
+      </c>
+      <c r="X9" t="s">
+        <v>1113</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>392</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>1145</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>1146</v>
+      </c>
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="7">
@@ -1211,31 +4829,81 @@
       <c r="B10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="19"/>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>816</v>
+      </c>
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" t="s">
+        <v>490</v>
+      </c>
+      <c r="I10" t="s">
+        <v>133</v>
+      </c>
+      <c r="J10" t="s">
+        <v>125</v>
+      </c>
+      <c r="K10" t="s">
+        <v>164</v>
+      </c>
+      <c r="L10" t="s">
+        <v>931</v>
+      </c>
+      <c r="M10" t="s">
+        <v>196</v>
+      </c>
+      <c r="N10" t="s">
+        <v>961</v>
+      </c>
+      <c r="O10" t="s">
+        <v>228</v>
+      </c>
+      <c r="P10" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>261</v>
+      </c>
+      <c r="R10" t="s">
+        <v>162</v>
+      </c>
+      <c r="S10" t="s">
+        <v>294</v>
+      </c>
+      <c r="T10" t="s">
+        <v>1052</v>
+      </c>
+      <c r="U10" t="s">
+        <v>327</v>
+      </c>
+      <c r="V10" t="s">
+        <v>1083</v>
+      </c>
+      <c r="W10" t="s">
+        <v>360</v>
+      </c>
+      <c r="X10" t="s">
+        <v>1115</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>392</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>1147</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>1148</v>
+      </c>
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="7">
@@ -1244,31 +4912,81 @@
       <c r="B11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="19"/>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>818</v>
+      </c>
+      <c r="E11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" t="s">
+        <v>849</v>
+      </c>
+      <c r="G11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" t="s">
+        <v>875</v>
+      </c>
+      <c r="I11" t="s">
+        <v>133</v>
+      </c>
+      <c r="J11" t="s">
+        <v>893</v>
+      </c>
+      <c r="K11" t="s">
+        <v>164</v>
+      </c>
+      <c r="L11" t="s">
+        <v>933</v>
+      </c>
+      <c r="M11" t="s">
+        <v>196</v>
+      </c>
+      <c r="N11" t="s">
+        <v>963</v>
+      </c>
+      <c r="O11" t="s">
+        <v>228</v>
+      </c>
+      <c r="P11" t="s">
+        <v>992</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>261</v>
+      </c>
+      <c r="R11" t="s">
+        <v>1022</v>
+      </c>
+      <c r="S11" t="s">
+        <v>294</v>
+      </c>
+      <c r="T11" t="s">
+        <v>1054</v>
+      </c>
+      <c r="U11" t="s">
+        <v>327</v>
+      </c>
+      <c r="V11" t="s">
+        <v>1085</v>
+      </c>
+      <c r="W11" t="s">
+        <v>360</v>
+      </c>
+      <c r="X11" t="s">
+        <v>1117</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>392</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>1149</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>1150</v>
+      </c>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="7">
@@ -1277,31 +4995,81 @@
       <c r="B12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="19"/>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>820</v>
+      </c>
+      <c r="E12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" t="s">
+        <v>851</v>
+      </c>
+      <c r="G12" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" t="s">
+        <v>877</v>
+      </c>
+      <c r="I12" t="s">
+        <v>133</v>
+      </c>
+      <c r="J12" t="s">
+        <v>905</v>
+      </c>
+      <c r="K12" t="s">
+        <v>164</v>
+      </c>
+      <c r="L12" t="s">
+        <v>935</v>
+      </c>
+      <c r="M12" t="s">
+        <v>196</v>
+      </c>
+      <c r="N12" t="s">
+        <v>965</v>
+      </c>
+      <c r="O12" t="s">
+        <v>228</v>
+      </c>
+      <c r="P12" t="s">
+        <v>994</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>261</v>
+      </c>
+      <c r="R12" t="s">
+        <v>1024</v>
+      </c>
+      <c r="S12" t="s">
+        <v>294</v>
+      </c>
+      <c r="T12" t="s">
+        <v>1056</v>
+      </c>
+      <c r="U12" t="s">
+        <v>327</v>
+      </c>
+      <c r="V12" t="s">
+        <v>1087</v>
+      </c>
+      <c r="W12" t="s">
+        <v>360</v>
+      </c>
+      <c r="X12" t="s">
+        <v>1119</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>392</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>1151</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>1152</v>
+      </c>
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="7">
@@ -1310,31 +5078,81 @@
       <c r="B13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="19"/>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>822</v>
+      </c>
+      <c r="E13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" t="s">
+        <v>879</v>
+      </c>
+      <c r="I13" t="s">
+        <v>133</v>
+      </c>
+      <c r="J13" t="s">
+        <v>907</v>
+      </c>
+      <c r="K13" t="s">
+        <v>164</v>
+      </c>
+      <c r="L13" t="s">
+        <v>937</v>
+      </c>
+      <c r="M13" t="s">
+        <v>196</v>
+      </c>
+      <c r="N13" t="s">
+        <v>967</v>
+      </c>
+      <c r="O13" t="s">
+        <v>228</v>
+      </c>
+      <c r="P13" t="s">
+        <v>996</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>261</v>
+      </c>
+      <c r="R13" t="s">
+        <v>1026</v>
+      </c>
+      <c r="S13" t="s">
+        <v>294</v>
+      </c>
+      <c r="T13" t="s">
+        <v>1058</v>
+      </c>
+      <c r="U13" t="s">
+        <v>327</v>
+      </c>
+      <c r="V13" t="s">
+        <v>1089</v>
+      </c>
+      <c r="W13" t="s">
+        <v>360</v>
+      </c>
+      <c r="X13" t="s">
+        <v>1121</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>392</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>1153</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>1154</v>
+      </c>
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="7">
@@ -1343,31 +5161,81 @@
       <c r="B14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="19"/>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>824</v>
+      </c>
+      <c r="E14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" t="s">
+        <v>545</v>
+      </c>
+      <c r="G14" t="s">
+        <v>100</v>
+      </c>
+      <c r="H14" t="s">
+        <v>881</v>
+      </c>
+      <c r="I14" t="s">
+        <v>133</v>
+      </c>
+      <c r="J14" t="s">
+        <v>909</v>
+      </c>
+      <c r="K14" t="s">
+        <v>164</v>
+      </c>
+      <c r="L14" t="s">
+        <v>939</v>
+      </c>
+      <c r="M14" t="s">
+        <v>196</v>
+      </c>
+      <c r="N14" t="s">
+        <v>969</v>
+      </c>
+      <c r="O14" t="s">
+        <v>228</v>
+      </c>
+      <c r="P14" t="s">
+        <v>998</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>261</v>
+      </c>
+      <c r="R14" t="s">
+        <v>1028</v>
+      </c>
+      <c r="S14" t="s">
+        <v>294</v>
+      </c>
+      <c r="T14" t="s">
+        <v>1060</v>
+      </c>
+      <c r="U14" t="s">
+        <v>327</v>
+      </c>
+      <c r="V14" t="s">
+        <v>1091</v>
+      </c>
+      <c r="W14" t="s">
+        <v>360</v>
+      </c>
+      <c r="X14" t="s">
+        <v>1123</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>392</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>1155</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>1156</v>
+      </c>
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="7">
@@ -1376,31 +5244,81 @@
       <c r="B15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="19"/>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>826</v>
+      </c>
+      <c r="E15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" t="s">
+        <v>182</v>
+      </c>
+      <c r="G15" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" t="s">
+        <v>883</v>
+      </c>
+      <c r="I15" t="s">
+        <v>133</v>
+      </c>
+      <c r="J15" t="s">
+        <v>911</v>
+      </c>
+      <c r="K15" t="s">
+        <v>164</v>
+      </c>
+      <c r="L15" t="s">
+        <v>941</v>
+      </c>
+      <c r="M15" t="s">
+        <v>196</v>
+      </c>
+      <c r="N15" t="s">
+        <v>971</v>
+      </c>
+      <c r="O15" t="s">
+        <v>228</v>
+      </c>
+      <c r="P15" t="s">
+        <v>1000</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>261</v>
+      </c>
+      <c r="R15" t="s">
+        <v>1030</v>
+      </c>
+      <c r="S15" t="s">
+        <v>294</v>
+      </c>
+      <c r="T15" t="s">
+        <v>1062</v>
+      </c>
+      <c r="U15" t="s">
+        <v>327</v>
+      </c>
+      <c r="V15" t="s">
+        <v>1093</v>
+      </c>
+      <c r="W15" t="s">
+        <v>360</v>
+      </c>
+      <c r="X15" t="s">
+        <v>1125</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>392</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>1157</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>1158</v>
+      </c>
     </row>
     <row r="16" spans="1:27">
       <c r="A16" s="7">
@@ -1409,31 +5327,81 @@
       <c r="B16" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="19"/>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>828</v>
+      </c>
+      <c r="E16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" t="s">
+        <v>856</v>
+      </c>
+      <c r="G16" t="s">
+        <v>100</v>
+      </c>
+      <c r="H16" t="s">
+        <v>885</v>
+      </c>
+      <c r="I16" t="s">
+        <v>133</v>
+      </c>
+      <c r="J16" t="s">
+        <v>913</v>
+      </c>
+      <c r="K16" t="s">
+        <v>164</v>
+      </c>
+      <c r="L16" t="s">
+        <v>943</v>
+      </c>
+      <c r="M16" t="s">
+        <v>196</v>
+      </c>
+      <c r="N16" t="s">
+        <v>973</v>
+      </c>
+      <c r="O16" t="s">
+        <v>228</v>
+      </c>
+      <c r="P16" t="s">
+        <v>1002</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>261</v>
+      </c>
+      <c r="R16" t="s">
+        <v>1032</v>
+      </c>
+      <c r="S16" t="s">
+        <v>294</v>
+      </c>
+      <c r="T16" t="s">
+        <v>1064</v>
+      </c>
+      <c r="U16" t="s">
+        <v>327</v>
+      </c>
+      <c r="V16" t="s">
+        <v>1095</v>
+      </c>
+      <c r="W16" t="s">
+        <v>360</v>
+      </c>
+      <c r="X16" t="s">
+        <v>1127</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>392</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>1159</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>1160</v>
+      </c>
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="7">
@@ -1442,31 +5410,81 @@
       <c r="B17" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
-      <c r="AA17" s="19"/>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>830</v>
+      </c>
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" t="s">
+        <v>858</v>
+      </c>
+      <c r="G17" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" t="s">
+        <v>887</v>
+      </c>
+      <c r="I17" t="s">
+        <v>133</v>
+      </c>
+      <c r="J17" t="s">
+        <v>915</v>
+      </c>
+      <c r="K17" t="s">
+        <v>164</v>
+      </c>
+      <c r="L17" t="s">
+        <v>945</v>
+      </c>
+      <c r="M17" t="s">
+        <v>196</v>
+      </c>
+      <c r="N17" t="s">
+        <v>975</v>
+      </c>
+      <c r="O17" t="s">
+        <v>228</v>
+      </c>
+      <c r="P17" t="s">
+        <v>1004</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>261</v>
+      </c>
+      <c r="R17" t="s">
+        <v>1034</v>
+      </c>
+      <c r="S17" t="s">
+        <v>294</v>
+      </c>
+      <c r="T17" t="s">
+        <v>1066</v>
+      </c>
+      <c r="U17" t="s">
+        <v>327</v>
+      </c>
+      <c r="V17" t="s">
+        <v>1097</v>
+      </c>
+      <c r="W17" t="s">
+        <v>360</v>
+      </c>
+      <c r="X17" t="s">
+        <v>1129</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>392</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>1161</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>1162</v>
+      </c>
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="7">
@@ -1475,31 +5493,81 @@
       <c r="B18" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="19"/>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>832</v>
+      </c>
+      <c r="E18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" t="s">
+        <v>860</v>
+      </c>
+      <c r="G18" t="s">
+        <v>100</v>
+      </c>
+      <c r="H18" t="s">
+        <v>889</v>
+      </c>
+      <c r="I18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J18" t="s">
+        <v>917</v>
+      </c>
+      <c r="K18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L18" t="s">
+        <v>895</v>
+      </c>
+      <c r="M18" t="s">
+        <v>196</v>
+      </c>
+      <c r="N18" t="s">
+        <v>270</v>
+      </c>
+      <c r="O18" t="s">
+        <v>228</v>
+      </c>
+      <c r="P18" t="s">
+        <v>1006</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>261</v>
+      </c>
+      <c r="R18" t="s">
+        <v>1036</v>
+      </c>
+      <c r="S18" t="s">
+        <v>294</v>
+      </c>
+      <c r="T18" t="s">
+        <v>1068</v>
+      </c>
+      <c r="U18" t="s">
+        <v>327</v>
+      </c>
+      <c r="V18" t="s">
+        <v>1099</v>
+      </c>
+      <c r="W18" t="s">
+        <v>360</v>
+      </c>
+      <c r="X18" t="s">
+        <v>1131</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>392</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>1163</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>1164</v>
+      </c>
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="7">
@@ -1508,31 +5576,81 @@
       <c r="B19" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="19"/>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" t="s">
+        <v>834</v>
+      </c>
+      <c r="E19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" t="s">
+        <v>862</v>
+      </c>
+      <c r="G19" t="s">
+        <v>100</v>
+      </c>
+      <c r="H19" t="s">
+        <v>891</v>
+      </c>
+      <c r="I19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J19" t="s">
+        <v>919</v>
+      </c>
+      <c r="K19" t="s">
+        <v>164</v>
+      </c>
+      <c r="L19" t="s">
+        <v>948</v>
+      </c>
+      <c r="M19" t="s">
+        <v>196</v>
+      </c>
+      <c r="N19" t="s">
+        <v>978</v>
+      </c>
+      <c r="O19" t="s">
+        <v>228</v>
+      </c>
+      <c r="P19" t="s">
+        <v>1008</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>261</v>
+      </c>
+      <c r="R19" t="s">
+        <v>1038</v>
+      </c>
+      <c r="S19" t="s">
+        <v>294</v>
+      </c>
+      <c r="T19" t="s">
+        <v>1070</v>
+      </c>
+      <c r="U19" t="s">
+        <v>327</v>
+      </c>
+      <c r="V19" t="s">
+        <v>1101</v>
+      </c>
+      <c r="W19" t="s">
+        <v>360</v>
+      </c>
+      <c r="X19" t="s">
+        <v>1133</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>392</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>1165</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>1166</v>
+      </c>
     </row>
     <row r="20" spans="1:27">
       <c r="A20" s="7">
@@ -1541,31 +5659,81 @@
       <c r="B20" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="6"/>
-      <c r="AA20" s="19"/>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s">
+        <v>836</v>
+      </c>
+      <c r="E20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" t="s">
+        <v>100</v>
+      </c>
+      <c r="H20" t="s">
+        <v>893</v>
+      </c>
+      <c r="I20" t="s">
+        <v>133</v>
+      </c>
+      <c r="J20" t="s">
+        <v>921</v>
+      </c>
+      <c r="K20" t="s">
+        <v>164</v>
+      </c>
+      <c r="L20" t="s">
+        <v>950</v>
+      </c>
+      <c r="M20" t="s">
+        <v>196</v>
+      </c>
+      <c r="N20" t="s">
+        <v>980</v>
+      </c>
+      <c r="O20" t="s">
+        <v>228</v>
+      </c>
+      <c r="P20" t="s">
+        <v>1010</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>261</v>
+      </c>
+      <c r="R20" t="s">
+        <v>1040</v>
+      </c>
+      <c r="S20" t="s">
+        <v>294</v>
+      </c>
+      <c r="T20" t="s">
+        <v>744</v>
+      </c>
+      <c r="U20" t="s">
+        <v>327</v>
+      </c>
+      <c r="V20" t="s">
+        <v>1103</v>
+      </c>
+      <c r="W20" t="s">
+        <v>360</v>
+      </c>
+      <c r="X20" t="s">
+        <v>1135</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>392</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>1167</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>737</v>
+      </c>
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="8">
@@ -1574,31 +5742,81 @@
       <c r="B21" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="10"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="9"/>
-      <c r="AA21" s="20"/>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>838</v>
+      </c>
+      <c r="E21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" t="s">
+        <v>865</v>
+      </c>
+      <c r="G21" t="s">
+        <v>100</v>
+      </c>
+      <c r="H21" t="s">
+        <v>895</v>
+      </c>
+      <c r="I21" t="s">
+        <v>133</v>
+      </c>
+      <c r="J21" t="s">
+        <v>923</v>
+      </c>
+      <c r="K21" t="s">
+        <v>164</v>
+      </c>
+      <c r="L21" t="s">
+        <v>952</v>
+      </c>
+      <c r="M21" t="s">
+        <v>196</v>
+      </c>
+      <c r="N21" t="s">
+        <v>276</v>
+      </c>
+      <c r="O21" t="s">
+        <v>228</v>
+      </c>
+      <c r="P21" t="s">
+        <v>1012</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>261</v>
+      </c>
+      <c r="R21" t="s">
+        <v>1042</v>
+      </c>
+      <c r="S21" t="s">
+        <v>294</v>
+      </c>
+      <c r="T21" t="s">
+        <v>1073</v>
+      </c>
+      <c r="U21" t="s">
+        <v>327</v>
+      </c>
+      <c r="V21" t="s">
+        <v>1105</v>
+      </c>
+      <c r="W21" t="s">
+        <v>360</v>
+      </c>
+      <c r="X21" t="s">
+        <v>1137</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>392</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>1168</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>1169</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1617,6 +5835,6 @@
     <mergeCell ref="U1:V4"/>
     <mergeCell ref="W1:X4"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>